--- a/variables mejor colegio.xlsx
+++ b/variables mejor colegio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\api_maestria_colegios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E78701-50EC-407D-A99B-85B8EFE6D9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190500E0-B402-431A-B141-D0F9CD1220B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8C274044-8C9D-46AE-8B81-DC787073A032}"/>
   </bookViews>
@@ -18,10 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$J$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$28:$B$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FAMI_EDUCACIONPADRE</t>
   </si>
@@ -80,6 +81,27 @@
   </si>
   <si>
     <t>Cuenta de ESTU_DEDICACIONLECTURADIARIA</t>
+  </si>
+  <si>
+    <t>Dedicacion lectura</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
+  <si>
+    <t>30 minutos o menos</t>
+  </si>
+  <si>
+    <t>Entre 1 y 2 horas</t>
+  </si>
+  <si>
+    <t>Entre 30 y 60 minutos</t>
+  </si>
+  <si>
+    <t>Mas de 2 horas</t>
+  </si>
+  <si>
+    <t>No leo por entretenimiento</t>
   </si>
 </sst>
 </file>
@@ -3920,7 +3942,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420010CA-F61A-4AD9-97AC-CB65017023DA}" name="TablaDinámica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420010CA-F61A-4AD9-97AC-CB65017023DA}" name="TablaDinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4292,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0F12D1-AF0B-44F7-BCC6-959EC8F68ECA}">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4382,64 @@
         <v>227</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <f>+B31/SUM($B$29:$B$33)</f>
+        <v>0.18061674008810572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A28:B28" xr:uid="{3D0F12D1-AF0B-44F7-BCC6-959EC8F68ECA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:B33">
+      <sortCondition descending="1" ref="B28"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/variables mejor colegio.xlsx
+++ b/variables mejor colegio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\api_maestria_colegios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190500E0-B402-431A-B141-D0F9CD1220B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184270FC-E260-49E1-9A40-97E6D194C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8C274044-8C9D-46AE-8B81-DC787073A032}"/>
   </bookViews>
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$J$228</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$28:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$B$28:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>FAMI_EDUCACIONPADRE</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Total general</t>
   </si>
   <si>
-    <t>Cuenta de ESTU_DEDICACIONLECTURADIARIA</t>
-  </si>
-  <si>
     <t>Dedicacion lectura</t>
   </si>
   <si>
@@ -103,12 +100,52 @@
   <si>
     <t>No leo por entretenimiento</t>
   </si>
+  <si>
+    <t>Cuenta de FAMI_EDUCACIONMADRE</t>
+  </si>
+  <si>
+    <t>porcenta</t>
+  </si>
+  <si>
+    <t>Educacion madre</t>
+  </si>
+  <si>
+    <t>Educacion profesional completa</t>
+  </si>
+  <si>
+    <t>Educacion profesional incompleta</t>
+  </si>
+  <si>
+    <t>No sabe</t>
+  </si>
+  <si>
+    <t>Postgrado</t>
+  </si>
+  <si>
+    <t>Secundaria (Bachillerato) completa</t>
+  </si>
+  <si>
+    <t>Tecnica o tecnologica completa</t>
+  </si>
+  <si>
+    <t>Tecnica o tecnologica incompleta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -151,9 +189,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -274,6 +315,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -286,7 +383,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$B$3</c:f>
+              <c:f>Hoja2!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -307,9 +404,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$4:$A$9</c:f>
+              <c:f>Hoja2!$B$4:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -317,44 +414,56 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$4:$B$9</c:f>
+              <c:f>Hoja2!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70E1-4943-9763-E418EAA410BA}"/>
+              <c16:uniqueId val="{00000001-BE44-4130-ABF9-D125DCF85726}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,13 +1233,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -1171,7 +1280,15 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
     </cacheField>
     <cacheField name="FAMI_EDUCACIONMADRE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11" count="7">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="11"/>
+        <n v="8"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="FAMI_TIENEINTERNET" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
@@ -1216,7 +1333,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="227">
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -1228,79 +1345,1375 @@
   </r>
   <r>
     <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
     <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="331"/>
   </r>
   <r>
     <n v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="311"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="358"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="348"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="368"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="386"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="382"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="382"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="397"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="362"/>
+  </r>
+  <r>
     <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="393"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <n v="3"/>
+    <n v="3"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="311"/>
+    <n v="377"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="382"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="368"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="437"/>
   </r>
   <r>
     <n v="10"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="366"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
     <n v="10"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="381"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="358"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="424"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="398"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="395"/>
   </r>
   <r>
     <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="386"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="383"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
     <x v="3"/>
     <n v="0"/>
-    <n v="348"/>
+    <n v="393"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="379"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="372"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
     <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="397"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="440"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="362"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="374"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="422"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="427"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
     <x v="1"/>
     <n v="0"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="373"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="409"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="391"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="393"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="382"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="365"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="450"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="437"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="394"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="416"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="419"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="410"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="430"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="391"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="425"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="424"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="396"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="366"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="449"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="468"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="396"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="389"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="386"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="362"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="416"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="402"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="434"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="397"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="366"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="370"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="377"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="365"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="391"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
     <n v="368"/>
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="416"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="377"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="5"/>
     <x v="4"/>
-    <n v="0"/>
-    <n v="378"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="11"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -1308,35 +2721,71 @@
     <n v="3"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="386"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="375"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
     <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="445"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
     <x v="1"/>
     <n v="0"/>
+    <n v="384"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
     <n v="382"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="0"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="382"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="10"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -1344,1415 +2793,83 @@
     <n v="3"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="397"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="362"/>
-  </r>
-  <r>
-    <n v="4"/>
+    <n v="394"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="369"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="373"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="393"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="438"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="365"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="377"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="382"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="368"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="437"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="366"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="428"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="381"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="428"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="424"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="398"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="395"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="395"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="386"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="383"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="383"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="393"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="379"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="372"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="397"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="440"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="362"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="374"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="422"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="427"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="408"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="373"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="409"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="393"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="382"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="383"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="365"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="450"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="437"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="394"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="416"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="378"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="419"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="370"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="410"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="430"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="408"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="425"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="424"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="396"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="428"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="395"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="366"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="449"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="468"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="396"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="389"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="386"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="362"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="416"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="402"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="434"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="397"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="366"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="370"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="377"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="378"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="365"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="368"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="416"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="378"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="377"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="375"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="445"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="384"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="382"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="394"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="369"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="373"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="438"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
     <n v="363"/>
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -2764,7 +2881,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
@@ -2776,7 +2893,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
@@ -2788,7 +2905,31 @@
   </r>
   <r>
     <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="393"/>
+  </r>
+  <r>
     <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="419"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2796,179 +2937,155 @@
     <n v="3"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="393"/>
+    <n v="440"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="403"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="407"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="438"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="370"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="419"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="419"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="1"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="440"/>
-  </r>
-  <r>
-    <n v="0"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="389"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="401"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="411"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="3"/>
     <n v="3"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="403"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="407"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="438"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
     <n v="3"/>
     <n v="3"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="370"/>
+    <n v="391"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="419"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="378"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="389"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="401"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="408"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="411"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -2980,7 +3097,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -2992,7 +3109,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
@@ -3004,55 +3121,175 @@
   </r>
   <r>
     <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="452"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="0"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="452"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="383"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="371"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="384"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="389"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="374"/>
   </r>
   <r>
     <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="367"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="403"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="420"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="372"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="385"/>
   </r>
   <r>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="0"/>
     <x v="4"/>
-    <n v="0"/>
-    <n v="383"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3060,203 +3297,83 @@
     <n v="3"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="371"/>
-  </r>
-  <r>
-    <n v="0"/>
+    <n v="402"/>
+  </r>
+  <r>
     <n v="5"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
     <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="391"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
     <x v="3"/>
     <n v="0"/>
-    <n v="384"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="389"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
+    <n v="366"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="2"/>
     <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="374"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="420"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="368"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="402"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="367"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="403"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="420"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="372"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
     <x v="4"/>
-    <n v="0"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="402"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="375"/>
+  </r>
+  <r>
+    <n v="0"/>
     <x v="3"/>
-    <n v="0"/>
-    <n v="366"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="420"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="368"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="3"/>
-    <n v="402"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="375"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="10"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3268,7 +3385,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3280,151 +3397,151 @@
   </r>
   <r>
     <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="368"/>
+  </r>
+  <r>
     <n v="5"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="3"/>
-    <n v="3"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="385"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="381"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="410"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="368"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="423"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="386"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="369"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="385"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="381"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="410"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="405"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="423"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="386"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="369"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3436,7 +3553,7 @@
   </r>
   <r>
     <n v="4"/>
-    <n v="10"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3448,7 +3565,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="3"/>
@@ -3460,130 +3577,130 @@
   </r>
   <r>
     <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="391"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="409"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="373"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="391"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="404"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="409"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <n v="0"/>
+    <n v="392"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
     <n v="1"/>
     <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="373"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="404"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="379"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="412"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
     <n v="3"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="408"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="1"/>
     <n v="3"/>
     <x v="3"/>
-    <n v="3"/>
-    <n v="379"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="0"/>
+    <n v="367"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="412"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="408"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="367"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
     <n v="1"/>
     <n v="1"/>
     <x v="0"/>
@@ -3592,7 +3709,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3604,7 +3721,7 @@
   </r>
   <r>
     <n v="1"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3616,7 +3733,7 @@
   </r>
   <r>
     <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3628,7 +3745,7 @@
   </r>
   <r>
     <n v="9"/>
-    <n v="10"/>
+    <x v="3"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -3640,55 +3757,199 @@
   </r>
   <r>
     <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="386"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="386"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="374"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="363"/>
   </r>
   <r>
     <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="419"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="407"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="396"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="387"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="3"/>
     <n v="3"/>
     <x v="3"/>
     <n v="0"/>
-    <n v="374"/>
-  </r>
-  <r>
-    <n v="1"/>
+    <n v="388"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="417"/>
+  </r>
+  <r>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="363"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="390"/>
   </r>
   <r>
     <n v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="371"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="413"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="426"/>
+  </r>
+  <r>
     <n v="5"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="419"/>
-  </r>
-  <r>
-    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="424"/>
+  </r>
+  <r>
     <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="412"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -3696,239 +3957,95 @@
     <n v="3"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="407"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="0"/>
+    <n v="447"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="401"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="390"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="376"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="417"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="399"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="397"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="396"/>
   </r>
   <r>
     <n v="0"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="387"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="388"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="417"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="390"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="371"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="426"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="424"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="3"/>
-    <n v="412"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="447"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="401"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="390"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="376"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="417"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="397"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="396"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3942,17 +4059,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420010CA-F61A-4AD9-97AC-CB65017023DA}" name="TablaDinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420010CA-F61A-4AD9-97AC-CB65017023DA}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="B3:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="3"/>
@@ -3966,9 +4094,9 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="7"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3984,6 +4112,12 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3992,10 +4126,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Cuenta de ESTU_DEDICACIONLECTURADIARIA" fld="7" subtotal="count" baseField="7" baseItem="0"/>
+    <dataField name="Cuenta de FAMI_EDUCACIONMADRE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4314,132 +4448,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0F12D1-AF0B-44F7-BCC6-959EC8F68ECA}">
-  <dimension ref="A3:C33"/>
+  <dimension ref="A3:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5">
+        <f>+C29/SUM($C$29:$C$33)</f>
+        <v>0.36123348017621143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:D33" si="0">+C30/SUM($C$29:$C$33)</f>
+        <v>0.26431718061674009</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18061674008810572</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1277533039647577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6079295154185022E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4">
+        <v>122</v>
+      </c>
+      <c r="D36" s="6">
+        <f>+C36/SUM($C$36:$C$42)</f>
+        <v>0.5374449339207048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" ref="D37:D42" si="1">+C37/SUM($C$36:$C$42)</f>
+        <v>3.9647577092511016E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>8.8105726872246704E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="4">
+        <v>73</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32158590308370044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="4">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5242290748898682E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="4">
+        <v>12</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="1"/>
+        <v>5.2863436123348019E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <v>41</v>
-      </c>
-      <c r="C31">
-        <f>+B31/SUM($B$29:$B$33)</f>
-        <v>0.18061674008810572</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4052863436123352E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A28:B28" xr:uid="{3D0F12D1-AF0B-44F7-BCC6-959EC8F68ECA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:B33">
-      <sortCondition descending="1" ref="B28"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
